--- a/doc/ue_SObjectWidget.xlsx
+++ b/doc/ue_SObjectWidget.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9237D78-88CA-46DC-B307-897093FAFDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3A1A36-8E37-44C6-A301-F47805D6BA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
+    <sheet name="GC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,9 +26,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>每一个UI空间都有对应的S对象，例如Ubutton有Sbutton，而UUserWidget对应的就是SObjectWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class UMG_API SObjectWidget : public SCompoundWidget, public FGCObject</t>
+  </si>
+  <si>
+    <t>受GC控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void SObjectWidget::AddReferencedObjects(FReferenceCollector&amp; Collector)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>Collector.AddReferencedObject(WidgetObject);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>把对应的UUSerWidget对象受GC管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释了为啥Slate管理的都是S开头的对象，对应的U对象不会被GC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释了MoviePlayer的时候，异步线程管理的UI和内部的Image等为啥不会被释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadingMoviePlayerAttributes.bAutoCompleteWhenLoadingCompletes = false;</t>
+  </si>
+  <si>
+    <t>LoadingMoviePlayerAttributes.bWaitForManualStop = false;</t>
+  </si>
+  <si>
+    <t>LoadingMoviePlayerAttributes.bMoviesAreSkippable = false;</t>
+  </si>
+  <si>
+    <t>LoadingMoviePlayerAttributes.MinimumLoadingScreenDisplayTime = 10.0f;</t>
+  </si>
+  <si>
+    <t>if (UClass* MyWidgetClass = LoadClass&lt;UUserWidget&gt;(NULL, TEXT("WidgetBlueprint'/Game/UMG/Loading.Loading_C'")))</t>
+  </si>
+  <si>
+    <t>UUserWidget* MyWidgetInstance = CreateWidget&lt;UUserWidget&gt;(this, MyWidgetClass);</t>
+  </si>
+  <si>
+    <t>LoadingMoviePlayerAttributes.WidgetLoadingScreen = MyWidgetInstance-&gt;TakeWidget();</t>
+  </si>
+  <si>
+    <t>GetMoviePlayer()-&gt;SetupLoadingScreen(LoadingMoviePlayerAttributes);</t>
+  </si>
+  <si>
+    <t>！！！这就解释了为啥不会被释放，因为TakeWidget里面创建了UUSerWidget对应的SObjectWidget，外部有持有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,7 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -381,4 +441,125 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E52C420-B598-47CC-8442-75B54BBA161A}">
+  <dimension ref="B4:P25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>